--- a/data/trans_bre/P2A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2A_R-Estudios-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con alguna limitación</t>
+          <t>Hogares con personas con alguna condición</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,88; 13,87</t>
+          <t>5,77; 13,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,43; 11,0</t>
+          <t>2,87; 11,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,29; 16,08</t>
+          <t>6,98; 15,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 1,23</t>
+          <t>-8,57; 1,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,22; 29,09</t>
+          <t>11,18; 29,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,19; 21,55</t>
+          <t>5,2; 21,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,14; 31,76</t>
+          <t>12,13; 31,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 2,2</t>
+          <t>-12,88; 1,83</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,95; 14,09</t>
+          <t>7,2; 13,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,7; 12,28</t>
+          <t>5,78; 12,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,81; 10,13</t>
+          <t>3,87; 10,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 1,41</t>
+          <t>-6,7; 1,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,13; 45,83</t>
+          <t>20,96; 45,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,87; 34,98</t>
+          <t>15,35; 36,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,43; 27,13</t>
+          <t>9,48; 26,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 1,88</t>
+          <t>-8,49; 1,77</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,98; 15,0</t>
+          <t>2,24; 14,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 10,77</t>
+          <t>-2,47; 10,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 11,46</t>
+          <t>-0,3; 11,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 0,54</t>
+          <t>-8,18; 0,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,38; 50,31</t>
+          <t>6,51; 47,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 33,4</t>
+          <t>-6,36; 32,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 36,33</t>
+          <t>-0,82; 39,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 0,7</t>
+          <t>-10,12; 0,8</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,68; 13,58</t>
+          <t>8,91; 13,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,76; 11,83</t>
+          <t>6,8; 11,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,39; 11,28</t>
+          <t>6,61; 11,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,9; -1,19</t>
+          <t>-6,75; -0,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,0; 37,18</t>
+          <t>22,94; 37,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,23; 29,75</t>
+          <t>16,0; 28,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,93; 28,42</t>
+          <t>15,5; 28,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,97; -1,5</t>
+          <t>-8,78; -1,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2A_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,77; 13,69</t>
+          <t>5,24; 13,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,87; 11,17</t>
+          <t>2,87; 11,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,98; 15,92</t>
+          <t>6,49; 15,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,18; 29,29</t>
+          <t>10,48; 29,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,2; 21,97</t>
+          <t>5,23; 21,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,13; 31,28</t>
+          <t>11,02; 31,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,2; 13,91</t>
+          <t>7,16; 13,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,78; 12,6</t>
+          <t>5,55; 12,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,87; 10,0</t>
+          <t>4,25; 10,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,96; 45,35</t>
+          <t>21,07; 45,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,35; 36,71</t>
+          <t>14,62; 35,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,48; 26,9</t>
+          <t>10,38; 28,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 14,53</t>
+          <t>2,12; 14,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 10,92</t>
+          <t>-2,64; 11,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 11,91</t>
+          <t>-0,33; 11,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,51; 47,78</t>
+          <t>5,53; 47,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 32,93</t>
+          <t>-6,81; 34,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 39,81</t>
+          <t>-1,1; 37,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,91; 13,65</t>
+          <t>8,84; 13,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,8; 11,46</t>
+          <t>6,57; 11,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,61; 11,43</t>
+          <t>6,61; 11,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,94; 37,47</t>
+          <t>22,37; 37,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,0; 28,71</t>
+          <t>15,46; 28,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,5; 28,9</t>
+          <t>15,41; 28,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_bre/P2A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2A_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,24; 13,63</t>
+          <t>5,88; 13,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,87; 11,09</t>
+          <t>2,43; 11,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,49; 15,97</t>
+          <t>6,29; 16,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 1,13</t>
+          <t>-8,52; 1,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,48; 29,43</t>
+          <t>11,22; 29,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,23; 21,8</t>
+          <t>4,19; 21,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,02; 31,14</t>
+          <t>11,14; 31,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 1,83</t>
+          <t>-12,64; 2,2</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,16; 13,85</t>
+          <t>6,95; 14,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,55; 12,23</t>
+          <t>5,7; 12,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,25; 10,53</t>
+          <t>3,81; 10,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 1,26</t>
+          <t>-6,32; 1,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,07; 45,16</t>
+          <t>20,13; 45,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,62; 35,18</t>
+          <t>14,87; 34,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,38; 28,34</t>
+          <t>9,43; 27,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 1,77</t>
+          <t>-8,01; 1,88</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 14,39</t>
+          <t>1,98; 15,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 11,29</t>
+          <t>-2,93; 10,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 11,72</t>
+          <t>-0,84; 11,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 0,61</t>
+          <t>-8,0; 0,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,53; 47,58</t>
+          <t>5,38; 50,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 34,95</t>
+          <t>-7,52; 33,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 37,71</t>
+          <t>-2,34; 36,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 0,8</t>
+          <t>-10,04; 0,7</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,84; 13,76</t>
+          <t>8,68; 13,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,57; 11,46</t>
+          <t>6,76; 11,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,61; 11,39</t>
+          <t>6,39; 11,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,75; -0,9</t>
+          <t>-6,9; -1,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,37; 37,43</t>
+          <t>22,0; 37,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,46; 28,9</t>
+          <t>16,23; 29,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,41; 28,42</t>
+          <t>14,93; 28,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,78; -1,17</t>
+          <t>-8,97; -1,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2A_R-Estudios-trans_bre.xlsx
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,72</t>
+          <t>12,27</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,04</t>
+          <t>10,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,38</t>
+          <t>12,99</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,88</t>
+          <t>7,96</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>17,92%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>17,76%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-6,09%</t>
+          <t>12,67%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,88; 13,87</t>
+          <t>8,57; 15,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,43; 11,0</t>
+          <t>7,23; 13,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,29; 16,08</t>
+          <t>9,41; 17,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 1,23</t>
+          <t>3,54; 12,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,22; 29,09</t>
+          <t>12,1; 23,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,19; 21,55</t>
+          <t>9,14; 17,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,14; 31,76</t>
+          <t>12,54; 24,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 2,2</t>
+          <t>5,48; 22,06</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,56</t>
+          <t>14,7</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,94</t>
+          <t>12,27</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,06</t>
+          <t>9,1</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>11,09</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>32,78%</t>
+          <t>38,12%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,65%</t>
+          <t>26,07%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>18,32%</t>
+          <t>19,03%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-4,28%</t>
+          <t>32,62%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,95; 14,09</t>
+          <t>11,23; 18,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,7; 12,28</t>
+          <t>9,19; 15,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,81; 10,13</t>
+          <t>5,62; 12,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 1,41</t>
+          <t>1,89; 29,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,13; 45,83</t>
+          <t>27,9; 49,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,87; 34,98</t>
+          <t>18,87; 34,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,43; 27,13</t>
+          <t>11,3; 26,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 1,88</t>
+          <t>5,54; 105,75</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,41</t>
+          <t>12,82</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>6,55</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,58</t>
+          <t>7,65</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,84</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25,58%</t>
+          <t>32,39%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,29%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>18,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,94%</t>
+          <t>5,8%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,98; 15,0</t>
+          <t>6,47; 19,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 10,77</t>
+          <t>-0,88; 13,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 11,46</t>
+          <t>1,1; 13,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 0,54</t>
+          <t>-3,26; 6,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,38; 50,31</t>
+          <t>15,38; 52,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 33,4</t>
+          <t>-1,68; 29,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 36,33</t>
+          <t>2,52; 35,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 0,7</t>
+          <t>-8,89; 21,76</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,21</t>
+          <t>15,68</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,16</t>
+          <t>13,53</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,95</t>
+          <t>11,49</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,36</t>
+          <t>10,45</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>29,64%</t>
+          <t>32,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,3%</t>
+          <t>24,32%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>21,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-5,79%</t>
+          <t>27,39%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,68; 13,58</t>
+          <t>13,23; 18,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,76; 11,83</t>
+          <t>11,19; 16,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,39; 11,28</t>
+          <t>9,02; 13,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,9; -1,19</t>
+          <t>4,47; 23,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,0; 37,18</t>
+          <t>26,86; 38,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,23; 29,75</t>
+          <t>19,69; 29,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,93; 28,42</t>
+          <t>16,75; 27,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,97; -1,5</t>
+          <t>10,76; 65,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2A_R-Estudios-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con alguna condición</t>
+          <t>Hogares que tienen personas con alguna condición, enfermedad crónica o limitación</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,57; 15,9</t>
+          <t>8,71; 15,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,23; 13,32</t>
+          <t>6,92; 13,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,41; 17,2</t>
+          <t>8,94; 16,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,54; 12,96</t>
+          <t>3,32; 12,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,1; 23,93</t>
+          <t>12,42; 24,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,14; 17,85</t>
+          <t>8,79; 18,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,54; 24,45</t>
+          <t>11,88; 24,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,48; 22,06</t>
+          <t>5,12; 21,54</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,23; 18,14</t>
+          <t>11,38; 18,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,19; 15,55</t>
+          <t>9,06; 15,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,62; 12,18</t>
+          <t>5,97; 12,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,89; 29,23</t>
+          <t>1,99; 29,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>27,9; 49,44</t>
+          <t>28,15; 49,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,87; 34,15</t>
+          <t>18,96; 34,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,3; 26,31</t>
+          <t>12,2; 26,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,54; 105,75</t>
+          <t>5,72; 107,84</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,47; 19,36</t>
+          <t>6,97; 19,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 13,25</t>
+          <t>-0,3; 13,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,1; 13,38</t>
+          <t>1,83; 13,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 6,56</t>
+          <t>-3,29; 6,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,38; 52,81</t>
+          <t>15,84; 52,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 29,97</t>
+          <t>-0,63; 30,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,52; 35,15</t>
+          <t>4,36; 36,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 21,76</t>
+          <t>-8,87; 21,89</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,23; 18,14</t>
+          <t>13,35; 18,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,19; 16,06</t>
+          <t>11,52; 16,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,02; 13,99</t>
+          <t>9,32; 13,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,47; 23,43</t>
+          <t>4,39; 22,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,86; 38,63</t>
+          <t>27,26; 38,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,69; 29,7</t>
+          <t>20,03; 29,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,75; 27,49</t>
+          <t>17,46; 27,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,76; 65,25</t>
+          <t>10,96; 70,53</t>
         </is>
       </c>
     </row>
